--- a/biology/Zoologie/Isisaurus/Isisaurus.xlsx
+++ b/biology/Zoologie/Isisaurus/Isisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isisaurus colberti
-Isisaurus (nommé d'après l'Institut indien de statistiques[1]) est un genre de titanosaure du Crétacé supérieur retrouvé en Inde.
-L'espèce type, et unique espèce connue, Isisaurus colberti, a été d'abord nommée Titanosaurus colberti par Sohan Lal Jain (d) et Saswati Bandyopadhyay en 1997[2], puis a été renommé en 2003 par Jeffrey A. Wilson (d) et Paul Upchurch (d)[3]. Le nom spécifique a été donné en l'honneur d'Edwin Harris Colbert[2],[4].
+Isisaurus (nommé d'après l'Institut indien de statistiques) est un genre de titanosaure du Crétacé supérieur retrouvé en Inde.
+L'espèce type, et unique espèce connue, Isisaurus colberti, a été d'abord nommée Titanosaurus colberti par Sohan Lal Jain (d) et Saswati Bandyopadhyay en 1997, puis a été renommé en 2003 par Jeffrey A. Wilson (d) et Paul Upchurch (d). Le nom spécifique a été donné en l'honneur d'Edwin Harris Colbert,.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'humérus a une longueur de 148 centimètres[2]. D'après ce spécimen, Isisaurus mesurait 18 mètres de long et pesait environ 20 tonnes[5].
-Son cou court et vertical ainsi que ses longs membres antérieurs le différencient considérablement des autres titanosauridaes[6].
-L'espèce-type est basée sur des vertèbres cervicales, dorsales, sacrées et caudales, des côtes, pelvis, scapula, coracoïde, un membre antérieur gauche ainsi que d'autres os. Ces fossiles ont été retrouvés entre 1984 et 1986 par Jain et Bandyopadhyay dans la formation de Lameta à Dongargaon Hill (Manjar Sumba, Maharashtra)[4]. En 2012, ils forment l'un squelette plus complet de titanosaure retrouvé à ce jour[6].
-Des champignons retrouvés dans les coprolithes attribués à Isisaurus indiqueraient que ce dernier mangeait des feuilles provenant de différentes espèces d'arbres[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'humérus a une longueur de 148 centimètres. D'après ce spécimen, Isisaurus mesurait 18 mètres de long et pesait environ 20 tonnes.
+Son cou court et vertical ainsi que ses longs membres antérieurs le différencient considérablement des autres titanosauridaes.
+L'espèce-type est basée sur des vertèbres cervicales, dorsales, sacrées et caudales, des côtes, pelvis, scapula, coracoïde, un membre antérieur gauche ainsi que d'autres os. Ces fossiles ont été retrouvés entre 1984 et 1986 par Jain et Bandyopadhyay dans la formation de Lameta à Dongargaon Hill (Manjar Sumba, Maharashtra). En 2012, ils forment l'un squelette plus complet de titanosaure retrouvé à ce jour.
+Des champignons retrouvés dans les coprolithes attribués à Isisaurus indiqueraient que ce dernier mangeait des feuilles provenant de différentes espèces d'arbres.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arackar a été placé chez les Titanosauria au sein des Lithostrotia en 2021, en tant que taxon sœur d'Isisaurus. Ensemble, ils forment un clade frère des Rapetosaurus, au sein des Saltasauridae. Le cladogramme de Rubilar-Rogers et al. (2021) est illustré ci-dessous[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arackar a été placé chez les Titanosauria au sein des Lithostrotia en 2021, en tant que taxon sœur d'Isisaurus. Ensemble, ils forment un clade frère des Rapetosaurus, au sein des Saltasauridae. Le cladogramme de Rubilar-Rogers et al. (2021) est illustré ci-dessous :
 </t>
         </is>
       </c>
